--- a/data/vals_spreadsheet.xlsx
+++ b/data/vals_spreadsheet.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/phenomics_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EBCFE-DCAC-1E45-B771-DC8F53AF3092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3E02F0-C378-914D-873C-C44E575F3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="23360" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="25600" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="knock-out_condition_metadata" sheetId="5" r:id="rId2"/>
+    <sheet name="OE_condition_metadata" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'knock-out_condition_metadata'!$A$1:$I$150</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="681">
   <si>
     <t>Sheets included in this dataset</t>
   </si>
@@ -1319,12 +1324,6 @@
   </si>
   <si>
     <t>sensitive to bleomycin (FYPO:0000095)</t>
-  </si>
-  <si>
-    <t>CONTROL</t>
-  </si>
-  <si>
-    <t>CONTOL</t>
   </si>
   <si>
     <t>sensitive to bleomycin (FYPO:0000095)/</t>
@@ -1426,9 +1425,6 @@
     <t>FYECO:0000081 (low glucose YES) ? FYECO:0000005 (standard temperature) we define standard as 25-32</t>
   </si>
   <si>
-    <t>FYECO: high glucose YES ?</t>
-  </si>
-  <si>
     <t>FYECO:0000081 (low glucose YES) FYECO:0000005 (standard temperature) we define standard as 25-32</t>
   </si>
   <si>
@@ -1574,6 +1570,561 @@
   </si>
   <si>
     <t>decreased vegetative cell population growth (FYPO:0001355) / increased vegetative cell population growth (FYPO:0004557)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONTROL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>decreased vegetative cell population growth (FYPO:0001355) / increased vegetative cell population growth (FYPO:0004557)</t>
+    </r>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Condition Name</t>
+  </si>
+  <si>
+    <t>Condition_Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Culture_duration</t>
+  </si>
+  <si>
+    <t>EMM_NH4Cl</t>
+  </si>
+  <si>
+    <t>NH4Cl</t>
+  </si>
+  <si>
+    <t>5 g/L</t>
+  </si>
+  <si>
+    <t>N-source</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>40 hours</t>
+  </si>
+  <si>
+    <t>EMM_Glu</t>
+  </si>
+  <si>
+    <t>Glutamate</t>
+  </si>
+  <si>
+    <t>20 mM</t>
+  </si>
+  <si>
+    <t>EMM_Arg</t>
+  </si>
+  <si>
+    <t>Arginine</t>
+  </si>
+  <si>
+    <t>21 mM</t>
+  </si>
+  <si>
+    <t>EMM_Cyst</t>
+  </si>
+  <si>
+    <t>Cysteine</t>
+  </si>
+  <si>
+    <t>22 mM</t>
+  </si>
+  <si>
+    <t>EMM_Iso</t>
+  </si>
+  <si>
+    <t>Isoleucine</t>
+  </si>
+  <si>
+    <t>23 mM</t>
+  </si>
+  <si>
+    <t>64 hours</t>
+  </si>
+  <si>
+    <t>Methionine</t>
+  </si>
+  <si>
+    <t>24 mM</t>
+  </si>
+  <si>
+    <t>EMM_Phe</t>
+  </si>
+  <si>
+    <t>Phenylalanine</t>
+  </si>
+  <si>
+    <t>25 mM</t>
+  </si>
+  <si>
+    <t>EMM_Pro</t>
+  </si>
+  <si>
+    <t>Proline</t>
+  </si>
+  <si>
+    <t>26 mM</t>
+  </si>
+  <si>
+    <t>EMM_Gluc0.5</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>0.5% (w/v)</t>
+  </si>
+  <si>
+    <t>Energy Source</t>
+  </si>
+  <si>
+    <t>EMM_Gluc2</t>
+  </si>
+  <si>
+    <t>2% (w/v)</t>
+  </si>
+  <si>
+    <t>EMM_Gluc3</t>
+  </si>
+  <si>
+    <t>3% (w/v)</t>
+  </si>
+  <si>
+    <t>EMM_Gly3</t>
+  </si>
+  <si>
+    <t>Glycerol</t>
+  </si>
+  <si>
+    <t>EMM_Gal2</t>
+  </si>
+  <si>
+    <t>Temp25C</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>25 ˚C</t>
+  </si>
+  <si>
+    <t>Growth Temperature</t>
+  </si>
+  <si>
+    <t>Temp32C</t>
+  </si>
+  <si>
+    <t>32 ˚C</t>
+  </si>
+  <si>
+    <t>Temp37C</t>
+  </si>
+  <si>
+    <t>37 ˚C</t>
+  </si>
+  <si>
+    <t>H2O2_0.5mM</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>500 µM</t>
+  </si>
+  <si>
+    <t>Oxidative Stress</t>
+  </si>
+  <si>
+    <t>H2O2_1mM</t>
+  </si>
+  <si>
+    <t>1 mM</t>
+  </si>
+  <si>
+    <t>40 / 64 hours</t>
+  </si>
+  <si>
+    <t>H2O2_3mM</t>
+  </si>
+  <si>
+    <t>3 mM</t>
+  </si>
+  <si>
+    <t>TBH0.2mM</t>
+  </si>
+  <si>
+    <t>tert-Butyl hydroperoxide solution</t>
+  </si>
+  <si>
+    <t>200 µM</t>
+  </si>
+  <si>
+    <t>TBH1mM</t>
+  </si>
+  <si>
+    <t>Diam2mM</t>
+  </si>
+  <si>
+    <t>2 mM</t>
+  </si>
+  <si>
+    <t>Bleo20ug</t>
+  </si>
+  <si>
+    <t>20 µg/mL</t>
+  </si>
+  <si>
+    <t>Oxidative / Genotoxic Stress</t>
+  </si>
+  <si>
+    <t>cancer drug, toxic to cells, binds DNA and also generate oxygen free radicals</t>
+  </si>
+  <si>
+    <t>HU10mM</t>
+  </si>
+  <si>
+    <t>10 mM</t>
+  </si>
+  <si>
+    <t>Genotoxic Stress</t>
+  </si>
+  <si>
+    <t>an inhibitor of ribonucleotide reductase, causes replications forks to stall by depleting deoxyribonucleotides.</t>
+  </si>
+  <si>
+    <t>HU20mM</t>
+  </si>
+  <si>
+    <t>HU5mM</t>
+  </si>
+  <si>
+    <t>5 mM</t>
+  </si>
+  <si>
+    <t>MMS0.005</t>
+  </si>
+  <si>
+    <t>Methyl Methanesulfonate</t>
+  </si>
+  <si>
+    <t>0.005% (w/v)</t>
+  </si>
+  <si>
+    <t>MMS0.0075</t>
+  </si>
+  <si>
+    <t>0.0075% (w/v)</t>
+  </si>
+  <si>
+    <t>KCl1M</t>
+  </si>
+  <si>
+    <t>1 M</t>
+  </si>
+  <si>
+    <t>Osmotic / Salt stress</t>
+  </si>
+  <si>
+    <t>Sorb1.2M</t>
+  </si>
+  <si>
+    <t>1.2 M</t>
+  </si>
+  <si>
+    <t>Osmotic stress</t>
+  </si>
+  <si>
+    <t>Ant0.1ng</t>
+  </si>
+  <si>
+    <t>Antimycin A</t>
+  </si>
+  <si>
+    <t>0.1 ng/mL</t>
+  </si>
+  <si>
+    <t>Respiration Inhibitor</t>
+  </si>
+  <si>
+    <t>Antimycin A is an antibiotic that induces apoptosis and inhibits the mitochondrial electron transport chain from cytochrome b to cytochrome C1. Additionally, studies report that antimycin A causes damage to mitochondrial DNA, lipids, and proteins in cells treated with the antibiotic. The compound has been shown to mimic cell-death-inducing Bcl-2 homology domain 3 and has been applied as a reactive oxygen species (ROS) generator to study biological systems. Research indicates that antimycin A inhibits the cell growth of HeLa cells through apoptosis and blocks nitric oxide-induced apoptosis via inhibition of cytochrome C leakage.</t>
+  </si>
+  <si>
+    <t>Ant1ng</t>
+  </si>
+  <si>
+    <t>1 ng/mL</t>
+  </si>
+  <si>
+    <t>CoCl0.25mM</t>
+  </si>
+  <si>
+    <t>CoCl2</t>
+  </si>
+  <si>
+    <t>0.25 mM</t>
+  </si>
+  <si>
+    <t>Hypoxia</t>
+  </si>
+  <si>
+    <t>EGTA10mM</t>
+  </si>
+  <si>
+    <t>Ethylene glycol-bis(2-aminoethylether)-N,N,N′,N′-tetraacetic acid</t>
+  </si>
+  <si>
+    <t>Ca2+ chelation / Inhibition of Cation Signalling</t>
+  </si>
+  <si>
+    <t>SDS0.001</t>
+  </si>
+  <si>
+    <t>0.001% (w/v)</t>
+  </si>
+  <si>
+    <t>cell membrane stress</t>
+  </si>
+  <si>
+    <t>SDS0.005</t>
+  </si>
+  <si>
+    <t>0.005 (w/v)</t>
+  </si>
+  <si>
+    <t>Bref60uM</t>
+  </si>
+  <si>
+    <t>Brefeldin A</t>
+  </si>
+  <si>
+    <t>60 µM</t>
+  </si>
+  <si>
+    <t>Inhibit Vesicle transport</t>
+  </si>
+  <si>
+    <t>ER-Golgi Complex Transport Inhibitor (Inhibit Protein Trafficking )</t>
+  </si>
+  <si>
+    <t>TSA500nM</t>
+  </si>
+  <si>
+    <t>500 nM</t>
+  </si>
+  <si>
+    <t>Inhibitor of HDAC</t>
+  </si>
+  <si>
+    <t>VPA3mM</t>
+  </si>
+  <si>
+    <t>Valproic acid</t>
+  </si>
+  <si>
+    <t>Inhibitor of HDAC/ Membrane trafficking</t>
+  </si>
+  <si>
+    <t>VALPROIC acid (VPA) is a short-chain fatty acid ; Valproic acid affects membrane trafficking and cell-wall integrity in fission yeast; also potential HDAC inhibitor</t>
+  </si>
+  <si>
+    <t>VPA5mM</t>
+  </si>
+  <si>
+    <t>3AT10mM</t>
+  </si>
+  <si>
+    <t>Protein Aggregation Stress</t>
+  </si>
+  <si>
+    <t>3-Amino-1,2,4-triazole is a heterocyclic organic compound that consists of a 1,2,4-triazole substituted with an amino group. A competitive inhibitor of the product of the HIS3 gene, imidazoleglycerol-phosphate dehydratase, an enzyme catalyzing the sixth step of histidine production</t>
+  </si>
+  <si>
+    <t>3AT20mM</t>
+  </si>
+  <si>
+    <t>Can60ug</t>
+  </si>
+  <si>
+    <t>Canavanine</t>
+  </si>
+  <si>
+    <t>60 µg/ml</t>
+  </si>
+  <si>
+    <t>is a naturally occurring L-amino acid that competes and interferes with L-arginine-utilizing enzymes due to its structural similarity. It is a selective inhibitor of inducible nitric oxide synthase (iNOS). It acts as a substrate for arginyl tRNA and is incorporated during protein synthesis leading to aberrant canavanyl proteins.</t>
+  </si>
+  <si>
+    <t>Caff10mM</t>
+  </si>
+  <si>
+    <t>Ageing</t>
+  </si>
+  <si>
+    <t>Rap100ng</t>
+  </si>
+  <si>
+    <t>100 ng/mL</t>
+  </si>
+  <si>
+    <t>Rap1ug</t>
+  </si>
+  <si>
+    <t>1 µg/mL</t>
+  </si>
+  <si>
+    <t>Torin5uM</t>
+  </si>
+  <si>
+    <t>Torin 1</t>
+  </si>
+  <si>
+    <t>5 µM</t>
+  </si>
+  <si>
+    <t>FYPO:0005242 / FYPO:0005243</t>
+  </si>
+  <si>
+    <t>NTR: decreased cell population growth on arginine nitrogen source / increased cell population growth on arginine nitrogen source</t>
+  </si>
+  <si>
+    <t>NTR: decreased cell population growth on cysteine nitrogen source / increased cell population growth on cysteine nitrogen source</t>
+  </si>
+  <si>
+    <t>NTR: decreased cell population growth on isoleucine nitrogen source / increased cell population growth on isoleucine nitrogen source</t>
+  </si>
+  <si>
+    <t>NTR: decreased cell population growth on methionine nitrogen source / increased cell population growth on methionine nitrogen source</t>
+  </si>
+  <si>
+    <t>FYPO:0007726 / NTR: increased cell population growth on phenylalanine nitrogen source</t>
+  </si>
+  <si>
+    <t>FYPO:0000250 / NTR: increased cell population growth on proline nitrogen source</t>
+  </si>
+  <si>
+    <t>FYPO:0000684 / FYPO:0004167</t>
+  </si>
+  <si>
+    <t>FYPO:0000251 / FYPO:0005261</t>
+  </si>
+  <si>
+    <t>FYPO:0000082 / FYPO:0005258</t>
+  </si>
+  <si>
+    <t>FYPO:0000087 / FYPO:0001103</t>
+  </si>
+  <si>
+    <t>FYPO:0000797 / FYPO:0003383</t>
+  </si>
+  <si>
+    <t>FYPO:0000799 / FYPO:0002693</t>
+  </si>
+  <si>
+    <t>FYPO:0000095</t>
+  </si>
+  <si>
+    <t>FYPO:0000088 / FYPO:0002578</t>
+  </si>
+  <si>
+    <t>FYPO:0000089 / FYPO:0000725</t>
+  </si>
+  <si>
+    <t>FYPO:0001214</t>
+  </si>
+  <si>
+    <t>FYPO:0000440 / FYPO:0000441</t>
+  </si>
+  <si>
+    <t>FYPO:0001245 / FYPO:0002634</t>
+  </si>
+  <si>
+    <t>FYPO:0007931</t>
+  </si>
+  <si>
+    <t>FYPO:0000841 / FYPO:0005266</t>
+  </si>
+  <si>
+    <t>FYPO:0000067 / FYPO:0001501</t>
+  </si>
+  <si>
+    <t>FYPO:0000327 / FYPO:0002546</t>
+  </si>
+  <si>
+    <t>FYPO:0000115 / FYPO:0007808</t>
+  </si>
+  <si>
+    <t>NTR: sensitive to 3-Amino-1,2,4-triazole / resistance to 3-Amino-1,2,4-triazole</t>
+  </si>
+  <si>
+    <t>FYPO:0000099 / FYPO:0001029</t>
+  </si>
+  <si>
+    <t>FYPO:0000073 / FYPO:0000097</t>
+  </si>
+  <si>
+    <t>FYPO:0000077 / FYPO:0000111</t>
+  </si>
+  <si>
+    <t>FYPO:0002701 / FYPO:0005193</t>
+  </si>
+  <si>
+    <t>sensitive to sorbitol (FYPO:0000112)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CONTROL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NTR: decreased viability during vegetative growth / increased viability during vegetative growth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CONTROL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> loss of viability in stationary phase (FYPO:0000245) / increased viability in stationary phase (FYPO:0001309)</t>
+    </r>
+  </si>
+  <si>
+    <t>loss of viability in stationary phase upon glucose starvation (FYPO:0005231) / NTR: increased viability in stationary phase upon glucose starvation (FYPO:0005231)</t>
+  </si>
+  <si>
+    <t>loss of viability upon glucose starvation (FYPO:0004162) / increased viability upon glucose starvation (FYPO:0004163)</t>
+  </si>
+  <si>
+    <t>decreased cell population growth during glucose starvation (FYPO:0003743) / NTR: increased cell population growth during glucose starvation</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +2226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,6 +2257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE95F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1719,7 +2276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1780,7 +2337,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1790,12 +2346,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEE95F4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3191,14 +3768,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="106.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="40" style="6" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="6" customWidth="1"/>
@@ -3240,8 +3817,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>431</v>
+      <c r="A2" s="38" t="s">
+        <v>507</v>
       </c>
       <c r="B2" s="25"/>
       <c r="D2" s="5" t="s">
@@ -3256,7 +3833,7 @@
         <v>426</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>427</v>
@@ -3282,7 +3859,7 @@
         <v>426</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>14</v>
@@ -3305,7 +3882,7 @@
         <v>429</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
@@ -3325,10 +3902,10 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -3351,10 +3928,10 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>25</v>
@@ -3380,7 +3957,7 @@
         <v>430</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>427</v>
@@ -3402,8 +3979,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>432</v>
+      <c r="A9" s="38" t="s">
+        <v>676</v>
       </c>
       <c r="B9" s="20"/>
       <c r="D9" s="5" t="s">
@@ -3418,7 +3995,7 @@
         <v>429</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>34</v>
@@ -3437,8 +4014,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>431</v>
+      <c r="A11" s="38" t="s">
+        <v>507</v>
       </c>
       <c r="B11" s="25"/>
       <c r="D11" s="5" t="s">
@@ -3449,11 +4026,11 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>483</v>
+      <c r="A12" s="28" t="s">
+        <v>480</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>39</v>
@@ -3467,10 +4044,10 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>42</v>
@@ -3490,10 +4067,10 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>45</v>
@@ -3506,11 +4083,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>483</v>
+      <c r="A15" s="28" t="s">
+        <v>480</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>48</v>
@@ -3524,10 +4101,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>51</v>
@@ -3547,10 +4124,10 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>53</v>
@@ -3570,10 +4147,10 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>55</v>
@@ -3593,10 +4170,10 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>427</v>
@@ -3619,10 +4196,10 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>61</v>
@@ -3642,10 +4219,10 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>63</v>
@@ -3665,10 +4242,10 @@
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>66</v>
@@ -3685,7 +4262,7 @@
         <v>429</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>69</v>
@@ -3708,7 +4285,7 @@
         <v>429</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>72</v>
@@ -3728,10 +4305,10 @@
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>74</v>
@@ -3751,10 +4328,10 @@
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>77</v>
@@ -3777,10 +4354,10 @@
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>81</v>
@@ -3800,10 +4377,10 @@
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>85</v>
@@ -3823,10 +4400,10 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>87</v>
@@ -3846,10 +4423,10 @@
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>89</v>
@@ -3868,11 +4445,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>486</v>
+      <c r="A31" s="28" t="s">
+        <v>483</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>91</v>
@@ -3894,11 +4471,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>486</v>
+      <c r="A32" s="28" t="s">
+        <v>483</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>95</v>
@@ -3917,11 +4494,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>486</v>
+      <c r="A33" s="28" t="s">
+        <v>483</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>97</v>
@@ -3941,10 +4518,10 @@
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>99</v>
@@ -3964,10 +4541,10 @@
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>103</v>
@@ -3987,10 +4564,10 @@
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>105</v>
@@ -4010,10 +4587,10 @@
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>107</v>
@@ -4033,10 +4610,10 @@
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>427</v>
@@ -4059,10 +4636,10 @@
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>114</v>
@@ -4082,10 +4659,10 @@
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>117</v>
@@ -4104,11 +4681,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
-        <v>488</v>
+      <c r="A41" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>119</v>
@@ -4127,11 +4704,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>488</v>
+      <c r="A42" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>122</v>
@@ -4151,10 +4728,10 @@
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>427</v>
@@ -4180,10 +4757,10 @@
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>129</v>
@@ -4203,10 +4780,10 @@
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>131</v>
@@ -4226,10 +4803,10 @@
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>134</v>
@@ -4249,10 +4826,10 @@
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>427</v>
@@ -4275,10 +4852,10 @@
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>140</v>
@@ -4301,10 +4878,10 @@
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>145</v>
@@ -4324,10 +4901,10 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>147</v>
@@ -4347,10 +4924,10 @@
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>149</v>
@@ -4370,10 +4947,10 @@
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>151</v>
@@ -4393,10 +4970,10 @@
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>153</v>
@@ -4416,10 +4993,10 @@
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>155</v>
@@ -4439,10 +5016,10 @@
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>157</v>
@@ -4462,10 +5039,10 @@
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>159</v>
@@ -4485,10 +5062,10 @@
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>162</v>
@@ -4502,10 +5079,10 @@
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>165</v>
@@ -4528,10 +5105,10 @@
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>169</v>
@@ -4550,8 +5127,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>431</v>
+      <c r="A60" s="38" t="s">
+        <v>676</v>
       </c>
       <c r="B60" s="10"/>
       <c r="D60" s="5" t="s">
@@ -4563,10 +5140,10 @@
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>173</v>
@@ -4586,10 +5163,10 @@
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>175</v>
@@ -4611,11 +5188,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
-        <v>489</v>
+      <c r="A63" s="28" t="s">
+        <v>486</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>179</v>
@@ -4635,10 +5212,10 @@
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>183</v>
@@ -4658,10 +5235,10 @@
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>185</v>
@@ -4680,11 +5257,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
-        <v>491</v>
+      <c r="A66" s="29" t="s">
+        <v>488</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>193</v>
@@ -4706,11 +5283,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
-        <v>490</v>
+      <c r="A67" s="28" t="s">
+        <v>487</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>198</v>
@@ -4723,11 +5300,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
-        <v>490</v>
+      <c r="A68" s="28" t="s">
+        <v>487</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>201</v>
@@ -4741,10 +5318,10 @@
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>427</v>
@@ -4767,10 +5344,10 @@
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>207</v>
@@ -4790,10 +5367,10 @@
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>209</v>
@@ -4813,10 +5390,10 @@
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>211</v>
@@ -4836,10 +5413,10 @@
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>213</v>
@@ -4858,11 +5435,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
-        <v>489</v>
+      <c r="A74" s="28" t="s">
+        <v>486</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>215</v>
@@ -4882,10 +5459,10 @@
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>217</v>
@@ -4905,10 +5482,10 @@
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>219</v>
@@ -4927,11 +5504,11 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="29" t="s">
-        <v>489</v>
+      <c r="A77" s="28" t="s">
+        <v>486</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>221</v>
@@ -4951,10 +5528,10 @@
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>223</v>
@@ -4974,10 +5551,10 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>225</v>
@@ -4997,10 +5574,10 @@
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>228</v>
@@ -5019,11 +5596,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="29" t="s">
-        <v>492</v>
+      <c r="A81" s="28" t="s">
+        <v>489</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>230</v>
@@ -5042,11 +5619,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
-        <v>492</v>
+      <c r="A82" s="28" t="s">
+        <v>489</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>233</v>
@@ -5065,11 +5642,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="29" t="s">
-        <v>492</v>
+      <c r="A83" s="28" t="s">
+        <v>489</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>235</v>
@@ -5088,11 +5665,11 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="29" t="s">
-        <v>492</v>
+      <c r="A84" s="28" t="s">
+        <v>489</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>237</v>
@@ -5112,10 +5689,10 @@
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>239</v>
@@ -5135,10 +5712,10 @@
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>241</v>
@@ -5160,11 +5737,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>508</v>
+      <c r="A87" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>245</v>
@@ -5178,10 +5755,10 @@
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>248</v>
@@ -5200,11 +5777,11 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>508</v>
+      <c r="A89" s="39" t="s">
+        <v>505</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>250</v>
@@ -5218,10 +5795,10 @@
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>253</v>
@@ -5240,11 +5817,11 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="30" t="s">
-        <v>493</v>
+      <c r="A91" s="29" t="s">
+        <v>490</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>255</v>
@@ -5261,10 +5838,10 @@
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>259</v>
@@ -5283,11 +5860,11 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="29" t="s">
-        <v>483</v>
+      <c r="A93" s="28" t="s">
+        <v>480</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>263</v>
@@ -5301,10 +5878,10 @@
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>266</v>
@@ -5324,10 +5901,10 @@
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>268</v>
@@ -5347,10 +5924,10 @@
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>271</v>
@@ -5370,10 +5947,10 @@
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>273</v>
@@ -5393,10 +5970,10 @@
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>276</v>
@@ -5418,11 +5995,11 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
-        <v>488</v>
+      <c r="A99" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>278</v>
@@ -5441,11 +6018,11 @@
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
-        <v>488</v>
+      <c r="A100" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>280</v>
@@ -5464,11 +6041,11 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="29" t="s">
-        <v>488</v>
+      <c r="A101" s="28" t="s">
+        <v>485</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>282</v>
@@ -5488,10 +6065,10 @@
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>284</v>
@@ -5511,10 +6088,10 @@
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>287</v>
@@ -5534,10 +6111,10 @@
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>290</v>
@@ -5557,10 +6134,10 @@
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>292</v>
@@ -5580,10 +6157,10 @@
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>296</v>
@@ -5603,10 +6180,10 @@
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>298</v>
@@ -5626,10 +6203,10 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>300</v>
@@ -5649,10 +6226,10 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>302</v>
@@ -5672,10 +6249,10 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>304</v>
@@ -5695,10 +6272,10 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>427</v>
@@ -5720,11 +6297,11 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
-        <v>465</v>
+      <c r="A112" s="39" t="s">
+        <v>678</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>308</v>
@@ -5738,10 +6315,10 @@
     </row>
     <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>311</v>
@@ -5760,11 +6337,11 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
-        <v>472</v>
+      <c r="A114" s="39" t="s">
+        <v>469</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>314</v>
@@ -5777,11 +6354,11 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
-        <v>472</v>
+      <c r="A115" s="39" t="s">
+        <v>469</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>317</v>
@@ -5794,11 +6371,11 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
-        <v>472</v>
+      <c r="A116" s="38" t="s">
+        <v>677</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>320</v>
@@ -5812,10 +6389,10 @@
     </row>
     <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>323</v>
@@ -5835,10 +6412,10 @@
     </row>
     <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>327</v>
@@ -5858,10 +6435,10 @@
     </row>
     <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>329</v>
@@ -5881,10 +6458,10 @@
     </row>
     <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>331</v>
@@ -5903,11 +6480,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="31" t="s">
-        <v>495</v>
+      <c r="A121" s="30" t="s">
+        <v>492</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>334</v>
@@ -5927,10 +6504,10 @@
     </row>
     <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>336</v>
@@ -5949,11 +6526,11 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="30" t="s">
-        <v>500</v>
+      <c r="A123" s="29" t="s">
+        <v>497</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>338</v>
@@ -5973,10 +6550,10 @@
     </row>
     <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>341</v>
@@ -5995,18 +6572,18 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="32" t="s">
-        <v>509</v>
+      <c r="A125" s="31" t="s">
+        <v>506</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="C125" s="32"/>
-      <c r="D125" s="33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C125" s="31"/>
+      <c r="D125" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="E125" s="32"/>
-      <c r="F125" s="33" t="s">
+      <c r="E125" s="31"/>
+      <c r="F125" s="32" t="s">
         <v>344</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -6015,10 +6592,10 @@
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>346</v>
@@ -6038,10 +6615,10 @@
     </row>
     <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>427</v>
@@ -6064,10 +6641,10 @@
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B128" s="29" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>496</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>351</v>
@@ -6087,10 +6664,10 @@
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>354</v>
@@ -6110,10 +6687,10 @@
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>357</v>
@@ -6133,10 +6710,10 @@
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>359</v>
@@ -6159,10 +6736,10 @@
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>363</v>
@@ -6185,10 +6762,10 @@
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B133" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>365</v>
@@ -6211,10 +6788,10 @@
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>367</v>
@@ -6237,10 +6814,10 @@
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>371</v>
@@ -6263,10 +6840,10 @@
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>373</v>
@@ -6289,10 +6866,10 @@
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>375</v>
@@ -6315,10 +6892,10 @@
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>377</v>
@@ -6341,10 +6918,10 @@
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>379</v>
@@ -6367,10 +6944,10 @@
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>384</v>
@@ -6390,10 +6967,10 @@
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>386</v>
@@ -6416,10 +6993,10 @@
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>390</v>
@@ -6439,10 +7016,10 @@
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>392</v>
@@ -6465,10 +7042,10 @@
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>397</v>
@@ -6488,10 +7065,10 @@
     </row>
     <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
-        <v>501</v>
+        <v>675</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="5" t="s">
@@ -6511,11 +7088,11 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>461</v>
+      <c r="A146" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>458</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>187</v>
@@ -6528,11 +7105,11 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>459</v>
+      <c r="A147" s="39" t="s">
+        <v>679</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>457</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>189</v>
@@ -6545,11 +7122,11 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>459</v>
+      <c r="A148" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>457</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>191</v>
@@ -6562,11 +7139,11 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="B149" s="28" t="s">
-        <v>460</v>
+      <c r="A149" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="B149" s="41" t="s">
+        <v>459</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>406</v>
@@ -6580,10 +7157,10 @@
     </row>
     <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="20" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>409</v>
@@ -7473,8 +8050,1337 @@
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <autoFilter ref="A1:I150" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B6C71-3AEE-9A49-8E5D-6D27BF992EF7}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="119.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>512</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>515</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>521</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>525</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>531</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>535</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>517</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>548</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>546</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>557</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>555</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>567</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>561</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>574</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>578</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>590</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>598</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>600</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="42" t="s">
+        <v>664</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>604</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>607</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>608</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>610</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>611</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>612</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>620</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="34" t="s">
+        <v>668</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>621</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>622</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>568</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="34" t="s">
+        <v>669</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>632</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="G43" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>635</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>636</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="34" t="s">
+        <v>672</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>642</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H47" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>643</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>644</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>645</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="G48" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1453369-F85D-E047-B67E-266FC74789B2}">
+  <dimension ref="A5:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/vals_spreadsheet.xlsx
+++ b/data/vals_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/phenomics_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3E02F0-C378-914D-873C-C44E575F3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7B0DB-5635-E947-A88F-0819BBC1FC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="25600" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="24820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -2091,20 +2091,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">CONTROL </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NTR: decreased viability during vegetative growth / increased viability during vegetative growth</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>CONTROL</t>
     </r>
     <r>
@@ -2125,6 +2111,9 @@
   </si>
   <si>
     <t>decreased cell population growth during glucose starvation (FYPO:0003743) / NTR: increased cell population growth during glucose starvation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTROL decreased vegetative cell population viability (FYPO:0009007) / increased vegetative cell population viability (FYPO:0009008) </t>
   </si>
 </sst>
 </file>
@@ -2276,16 +2265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="33">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2300,27 +2288,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2330,35 +2313,23 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2592,7 +2563,7 @@
     <col min="2" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>423</v>
       </c>
@@ -3768,3451 +3739,3449 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="106.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="40" style="6" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="70" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="34" style="6" customWidth="1"/>
-    <col min="9" max="9" width="44.5" style="6" customWidth="1"/>
-    <col min="10" max="26" width="7.6640625" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="12.6640625" style="6"/>
+    <col min="1" max="1" width="106.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="40" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="70" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="34" style="5" customWidth="1"/>
+    <col min="9" max="9" width="44.5" style="5" customWidth="1"/>
+    <col min="10" max="26" width="7.6640625" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="12.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="21"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>426</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>426</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>60</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.5</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>430</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>200</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4">
+        <v>150</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4">
+        <v>200</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4">
+        <v>300</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="4">
+        <v>600</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="4">
+        <v>200</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="4">
+        <v>60</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="4">
+        <v>120</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4">
+        <v>60</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="4">
+        <v>100</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="4">
+        <v>200</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="4">
+        <v>400</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4">
+        <v>600</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="4">
+        <v>30</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="4">
+        <v>15</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="4">
+        <v>20</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="4">
+        <v>6000</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="4">
+        <v>9000</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="4">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" s="4">
+        <v>200</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="D60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" s="4">
+        <v>10</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="4">
+        <v>12</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="4">
+        <v>15</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" s="4">
+        <v>4</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="4">
+        <v>40</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="4">
+        <v>6</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="4">
+        <v>8</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="4">
+        <v>80</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="4">
+        <v>500</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="4">
+        <v>1</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E81" s="4">
+        <v>10</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="4">
+        <v>15</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="4">
+        <v>1</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="4">
+        <v>5</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" s="4">
+        <v>10</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E86" s="4">
+        <v>2</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95" s="4">
+        <v>4</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E98" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E99" s="4">
+        <v>4</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E104" s="4">
+        <v>500</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E106" s="4">
+        <v>50</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E107" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" s="4">
+        <v>25</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E109" s="4">
+        <v>10</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="4">
+        <v>8</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="B116" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E118" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E119" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E120" s="4">
+        <v>10</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="B123" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5">
-        <v>75</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
-        <v>507</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5">
-        <v>150</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="D123" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E123" s="4">
+        <v>50</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E124" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E126" s="4">
+        <v>10</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="5">
-        <v>200</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="5">
-        <v>300</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="5">
-        <v>600</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="H126" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D127" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E128" s="4">
+        <v>20</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B129" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E129" s="4">
+        <v>20</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E130" s="4">
+        <v>10</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E131" s="4">
+        <v>2</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E135" s="4">
+        <v>2</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E140" s="4">
         <v>100</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="5">
-        <v>200</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="5">
-        <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="5">
-        <v>120</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="5">
-        <v>60</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F140" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E142" s="4">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="H142" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E143" s="4">
         <v>5</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="5">
-        <v>100</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="5">
-        <v>200</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="F143" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="5">
-        <v>600</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="5">
-        <v>11.6</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="5">
-        <v>23.2</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="5">
-        <v>5</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="5">
-        <v>30</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="5">
-        <v>45</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="5">
-        <v>6</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="5">
-        <v>15</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E46" s="5">
-        <v>2</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="5">
-        <v>10</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="5">
-        <v>2000</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="5">
-        <v>20</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="5">
-        <v>4000</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="5">
-        <v>5</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E54" s="5">
-        <v>6000</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E55" s="5">
-        <v>9000</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="5">
-        <v>5</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" s="5">
-        <v>200</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E59" s="5">
-        <v>2</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="B60" s="10"/>
-      <c r="D60" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E62" s="5">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="5">
-        <v>12</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" s="5">
-        <v>15</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="5">
-        <v>10</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" s="5">
-        <v>2</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="5">
-        <v>2</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E71" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E72" s="5">
-        <v>3</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" s="5">
-        <v>4</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="5">
-        <v>40</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="5">
-        <v>6</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="5">
-        <v>8</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="5">
-        <v>80</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E78" s="5">
-        <v>500</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="5">
-        <v>1</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E80" s="5">
-        <v>4</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E81" s="5">
-        <v>10</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E82" s="5">
-        <v>15</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="B83" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E83" s="5">
-        <v>1</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" s="5">
-        <v>5</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E85" s="5">
-        <v>10</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E86" s="5">
-        <v>2</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="I86" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>470</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E88" s="5">
-        <v>3</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B90" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E90" s="5">
-        <v>8</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
-        <v>490</v>
-      </c>
-      <c r="B91" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B92" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G92" s="5" t="s">
+      <c r="E145" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="B93" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E94" s="5">
-        <v>1</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B95" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E95" s="5">
-        <v>4</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E96" s="5">
-        <v>3</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="E98" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E99" s="5">
-        <v>4</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E100" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E101" s="5">
-        <v>1</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E102" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E103" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E104" s="5">
-        <v>500</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E105" s="5">
-        <v>37.5</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E106" s="5">
-        <v>50</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B107" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E107" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E108" s="5">
-        <v>25</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E109" s="5">
-        <v>10</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="E110" s="5">
-        <v>8</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B111" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E111" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="39" t="s">
+      <c r="H145" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="29" t="s">
         <v>678</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>476</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="20" t="s">
+      <c r="B146" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B113" s="20" t="s">
+      <c r="B150" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="E113" s="5">
-        <v>2</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="39" t="s">
-        <v>469</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>475</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E117" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E118" s="5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>459</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E119" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="E120" s="5">
-        <v>10</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E121" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E122" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="B123" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E123" s="5">
-        <v>50</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E124" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31" t="s">
-        <v>506</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="C125" s="31"/>
-      <c r="D125" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="E125" s="31"/>
-      <c r="F125" s="32" t="s">
-        <v>344</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E126" s="5">
-        <v>10</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="E127" s="5">
-        <v>1</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E128" s="5">
-        <v>20</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E129" s="5">
-        <v>20</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E130" s="5">
-        <v>10</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B131" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="E131" s="5">
-        <v>2</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B132" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E132" s="5">
-        <v>1</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H132" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="E133" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="I133" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B134" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E134" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E135" s="5">
-        <v>2</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I135" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E136" s="5">
-        <v>1</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I136" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E137" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I137" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E138" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="E139" s="5">
-        <v>1</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E140" s="5">
-        <v>100</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E141" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="I141" s="5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E142" s="5">
-        <v>10</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E143" s="5">
-        <v>5</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E144" s="5">
-        <v>2</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E145" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="B147" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="B149" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F150" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H150" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="D151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="D152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="H153" s="7"/>
+      <c r="D153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="D154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="D156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="D157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="D158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8077,1248 +8046,1247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" t="s">
         <v>515</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" t="s">
         <v>516</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" t="s">
         <v>517</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" t="s">
         <v>518</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" t="s">
         <v>521</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" t="s">
         <v>522</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" t="s">
         <v>517</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" t="s">
         <v>518</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" t="s">
         <v>523</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" t="s">
         <v>524</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" t="s">
         <v>525</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" t="s">
         <v>517</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" t="s">
         <v>518</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" t="s">
         <v>526</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" t="s">
         <v>527</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" t="s">
         <v>528</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" t="s">
         <v>517</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="34" t="s">
+      <c r="A6" t="s">
         <v>649</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" t="s">
         <v>529</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" t="s">
         <v>530</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" t="s">
         <v>531</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" t="s">
         <v>517</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" t="s">
         <v>518</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+      <c r="A7" t="s">
         <v>650</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s">
         <v>533</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" t="s">
         <v>534</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" t="s">
         <v>517</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" t="s">
         <v>518</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" t="s">
         <v>535</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" t="s">
         <v>536</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" t="s">
         <v>537</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" t="s">
         <v>517</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" t="s">
         <v>518</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" t="s">
         <v>538</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" t="s">
         <v>539</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" t="s">
         <v>540</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" t="s">
         <v>517</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" t="s">
         <v>518</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="42" t="s">
-        <v>680</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" t="s">
         <v>541</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" t="s">
         <v>542</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" t="s">
         <v>543</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" t="s">
         <v>544</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" t="s">
         <v>518</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" t="s">
         <v>545</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" t="s">
         <v>542</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" t="s">
         <v>544</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" t="s">
         <v>518</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" t="s">
         <v>547</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" t="s">
         <v>542</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" t="s">
         <v>548</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" t="s">
         <v>544</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" t="s">
         <v>518</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" t="s">
         <v>549</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" t="s">
         <v>550</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" t="s">
         <v>548</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" t="s">
         <v>544</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" t="s">
         <v>518</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" t="s">
         <v>551</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" t="s">
         <v>398</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" t="s">
         <v>546</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" t="s">
         <v>544</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" t="s">
         <v>518</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" t="s">
         <v>552</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" t="s">
         <v>553</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" t="s">
         <v>554</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" t="s">
         <v>555</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" t="s">
         <v>518</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" t="s">
         <v>556</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" t="s">
         <v>553</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" t="s">
         <v>557</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" t="s">
         <v>555</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" t="s">
         <v>518</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" t="s">
         <v>558</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" t="s">
         <v>553</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" t="s">
         <v>559</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" t="s">
         <v>555</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" t="s">
         <v>518</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" t="s">
         <v>560</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" t="s">
         <v>561</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" t="s">
         <v>562</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" t="s">
         <v>563</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" t="s">
         <v>518</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" t="s">
         <v>564</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" t="s">
         <v>561</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" t="s">
         <v>565</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" t="s">
         <v>563</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" t="s">
         <v>518</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" t="s">
         <v>567</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" t="s">
         <v>561</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" t="s">
         <v>568</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" t="s">
         <v>563</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" t="s">
         <v>518</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" t="s">
         <v>570</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" t="s">
         <v>571</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" t="s">
         <v>563</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" t="s">
         <v>518</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" t="s">
         <v>572</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" t="s">
         <v>570</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" t="s">
         <v>565</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" t="s">
         <v>563</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" t="s">
         <v>518</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="10" t="s">
         <v>658</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" t="s">
         <v>573</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" t="s">
         <v>205</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" t="s">
         <v>574</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" t="s">
         <v>563</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" t="s">
         <v>518</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" t="s">
         <v>575</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" t="s">
         <v>576</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" t="s">
         <v>577</v>
       </c>
-      <c r="G24" s="34" t="s">
+      <c r="G24" t="s">
         <v>578</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" t="s">
         <v>579</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" t="s">
         <v>580</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" t="s">
         <v>581</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" t="s">
         <v>582</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" t="s">
         <v>522</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" t="s">
         <v>581</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" t="s">
         <v>518</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="10" t="s">
         <v>660</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" t="s">
         <v>584</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" t="s">
         <v>585</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" t="s">
         <v>581</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" t="s">
         <v>518</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" t="s">
         <v>586</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" t="s">
         <v>587</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" t="s">
         <v>588</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" t="s">
         <v>581</v>
       </c>
-      <c r="G28" s="34" t="s">
+      <c r="G28" t="s">
         <v>518</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" t="s">
         <v>589</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" t="s">
         <v>587</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" t="s">
         <v>590</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" t="s">
         <v>581</v>
       </c>
-      <c r="G29" s="34" t="s">
+      <c r="G29" t="s">
         <v>518</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="10" t="s">
         <v>662</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" t="s">
         <v>591</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" t="s">
         <v>260</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" t="s">
         <v>592</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" t="s">
         <v>593</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" t="s">
         <v>518</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="34" t="s">
+      <c r="A31" t="s">
         <v>498</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" t="s">
         <v>594</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" t="s">
         <v>401</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" t="s">
         <v>595</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" t="s">
         <v>596</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" t="s">
         <v>518</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" t="s">
         <v>597</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" t="s">
         <v>598</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" t="s">
         <v>599</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" t="s">
         <v>600</v>
       </c>
-      <c r="G32" s="34" t="s">
+      <c r="G32" t="s">
         <v>601</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="10" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" t="s">
         <v>602</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" t="s">
         <v>598</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" t="s">
         <v>603</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" t="s">
         <v>600</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" t="s">
         <v>518</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" t="s">
         <v>604</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" t="s">
         <v>605</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" t="s">
         <v>606</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" t="s">
         <v>607</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="G34" t="s">
         <v>518</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" t="s">
         <v>665</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" t="s">
         <v>608</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" t="s">
         <v>609</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" t="s">
         <v>580</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" t="s">
         <v>610</v>
       </c>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" t="s">
         <v>611</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" t="s">
         <v>612</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" t="s">
         <v>613</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" t="s">
         <v>518</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" t="s">
         <v>614</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" t="s">
         <v>615</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" t="s">
         <v>613</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" t="s">
         <v>518</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" t="s">
         <v>616</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D38" t="s">
         <v>617</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" t="s">
         <v>618</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" t="s">
         <v>619</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G38" t="s">
         <v>620</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="34" t="s">
+      <c r="A39" t="s">
         <v>668</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" t="s">
         <v>621</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" t="s">
         <v>288</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" t="s">
         <v>622</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" t="s">
         <v>623</v>
       </c>
-      <c r="G39" s="34" t="s">
+      <c r="G39" t="s">
         <v>518</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H39" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="34" t="s">
+      <c r="A40" t="s">
         <v>669</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" t="s">
         <v>624</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" t="s">
         <v>625</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" t="s">
         <v>568</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" t="s">
         <v>626</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" t="s">
         <v>627</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="34" t="s">
+      <c r="A41" t="s">
         <v>669</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" t="s">
         <v>628</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" t="s">
         <v>625</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" t="s">
         <v>585</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" t="s">
         <v>626</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" t="s">
         <v>518</v>
       </c>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" t="s">
         <v>629</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" t="s">
         <v>580</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" t="s">
         <v>630</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G42" t="s">
         <v>631</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" t="s">
         <v>632</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" t="s">
         <v>522</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" t="s">
         <v>630</v>
       </c>
-      <c r="G43" s="34" t="s">
+      <c r="G43" t="s">
         <v>518</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" t="s">
         <v>633</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D44" t="s">
         <v>634</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" t="s">
         <v>635</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" t="s">
         <v>630</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G44" t="s">
         <v>636</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
+      <c r="A45" t="s">
         <v>672</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" t="s">
         <v>637</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" t="s">
         <v>347</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" t="s">
         <v>580</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" t="s">
         <v>638</v>
       </c>
-      <c r="G45" s="34" t="s">
+      <c r="G45" t="s">
         <v>518</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="34" t="s">
+      <c r="A46" t="s">
         <v>673</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" t="s">
         <v>639</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" t="s">
         <v>380</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" t="s">
         <v>640</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" t="s">
         <v>638</v>
       </c>
-      <c r="G46" s="34" t="s">
+      <c r="G46" t="s">
         <v>518</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="10" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="34" t="s">
+      <c r="A47" t="s">
         <v>673</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" t="s">
         <v>641</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" t="s">
         <v>380</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" t="s">
         <v>642</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" t="s">
         <v>638</v>
       </c>
-      <c r="G47" s="34" t="s">
+      <c r="G47" t="s">
         <v>518</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" t="s">
         <v>643</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" t="s">
         <v>644</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" t="s">
         <v>645</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" t="s">
         <v>638</v>
       </c>
-      <c r="G48" s="34" t="s">
+      <c r="G48" t="s">
         <v>518</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="10" t="s">
         <v>519</v>
       </c>
     </row>
@@ -9341,42 +9309,42 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>321</v>
       </c>
     </row>

--- a/data/vals_spreadsheet.xlsx
+++ b/data/vals_spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/phenomics_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7B0DB-5635-E947-A88F-0819BBC1FC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA586A4F-ACA9-CE46-AC50-3FE38222D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3739,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B126" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="102" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/vals_spreadsheet.xlsx
+++ b/data/vals_spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/phenomics_paper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/phenomics_paper_HTP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA586A4F-ACA9-CE46-AC50-3FE38222D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A52880-27D1-EA42-8932-51AEC0F2AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="24820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20100" yWindow="560" windowWidth="41540" windowHeight="26740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="679">
   <si>
     <t>Sheets included in this dataset</t>
   </si>
@@ -1344,22 +1344,13 @@
     <t>sensitive to ethanol during vegetative growth (FYPO:0000842)/resistance to ethanol (FYPO:0001453)</t>
   </si>
   <si>
-    <t>sensitive to UV (FYPO:0002550)</t>
-  </si>
-  <si>
     <t>sensitive to formamide (FYPO:0000785)</t>
   </si>
   <si>
     <t>sensitive to hydroxyurea (FYPO:0000088)/resistance to hydroxyurea (FYPO:0002578)</t>
   </si>
   <si>
-    <t>sensitive to sodium dodecyl sulfate (FYPO:0000841) </t>
-  </si>
-  <si>
     <t xml:space="preserve">sensitive to tert-butyl hydroperoxide (FYPO:0000797)/resistance to tert-butyl hydroperoxide (FYPO:0003383) </t>
-  </si>
-  <si>
-    <t>sensitive to diamide (FYPO:0000799) </t>
   </si>
   <si>
     <t xml:space="preserve">sensitive to hydrogen peroxide (FYPO:0000087)/resistance to hydrogen peroxide (FYPO:0001103) </t>
@@ -1416,9 +1407,6 @@
     <t>sensitive to cadmium (FYPO:0000096)/resistance to cadmium (FYPO:0000763)</t>
   </si>
   <si>
-    <t>sensitive to dimethyl sulfoxide</t>
-  </si>
-  <si>
     <t>sensitive to torin1 (FYPO:0002701) / resistance to torin1 (FYPO:0005193)</t>
   </si>
   <si>
@@ -1437,9 +1425,6 @@
     <t>sensitive to potassium chloride (FYPO:0001214)/</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>sensitive to methyl methanesulfonate (FYPO:0000089)/resistance to methyl methanesulfonate (FYPO:0000725)</t>
   </si>
   <si>
@@ -1458,9 +1443,6 @@
     <t>sensitive to trichostatin A (FYPO:0002546)/ resistance to trichostatin A (FYPO:0000327)</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>FYECO:0000072 (glycerol MM with trace glucose)</t>
   </si>
   <si>
@@ -1546,27 +1528,6 @@
   </si>
   <si>
     <t>FYPO:0000112</t>
-  </si>
-  <si>
-    <t>NTR: decreased viability on galactose carbon source</t>
-  </si>
-  <si>
-    <t>NTR: decreased cell population growth on glutamine nitrogen source</t>
-  </si>
-  <si>
-    <t>NTR: decreased cell population growth on arginine nitrogen source</t>
-  </si>
-  <si>
-    <t>NTR: decreased cell population growth on proline nitrogen source</t>
-  </si>
-  <si>
-    <t>NTR: decreased viability on xylose carbon source</t>
-  </si>
-  <si>
-    <t>NTR: decreased viability on glycerol carbon source</t>
-  </si>
-  <si>
-    <t>NTR: sensitive to methyl methanesulfonate in glycerol carbon source</t>
   </si>
   <si>
     <t>decreased vegetative cell population growth (FYPO:0001355) / increased vegetative cell population growth (FYPO:0004557)</t>
@@ -2003,24 +1964,6 @@
     <t>FYPO:0005242 / FYPO:0005243</t>
   </si>
   <si>
-    <t>NTR: decreased cell population growth on arginine nitrogen source / increased cell population growth on arginine nitrogen source</t>
-  </si>
-  <si>
-    <t>NTR: decreased cell population growth on cysteine nitrogen source / increased cell population growth on cysteine nitrogen source</t>
-  </si>
-  <si>
-    <t>NTR: decreased cell population growth on isoleucine nitrogen source / increased cell population growth on isoleucine nitrogen source</t>
-  </si>
-  <si>
-    <t>NTR: decreased cell population growth on methionine nitrogen source / increased cell population growth on methionine nitrogen source</t>
-  </si>
-  <si>
-    <t>FYPO:0007726 / NTR: increased cell population growth on phenylalanine nitrogen source</t>
-  </si>
-  <si>
-    <t>FYPO:0000250 / NTR: increased cell population growth on proline nitrogen source</t>
-  </si>
-  <si>
     <t>FYPO:0000684 / FYPO:0004167</t>
   </si>
   <si>
@@ -2070,9 +2013,6 @@
   </si>
   <si>
     <t>FYPO:0000115 / FYPO:0007808</t>
-  </si>
-  <si>
-    <t>NTR: sensitive to 3-Amino-1,2,4-triazole / resistance to 3-Amino-1,2,4-triazole</t>
   </si>
   <si>
     <t>FYPO:0000099 / FYPO:0001029</t>
@@ -2104,23 +2044,77 @@
     </r>
   </si>
   <si>
-    <t>loss of viability in stationary phase upon glucose starvation (FYPO:0005231) / NTR: increased viability in stationary phase upon glucose starvation (FYPO:0005231)</t>
-  </si>
-  <si>
     <t>loss of viability upon glucose starvation (FYPO:0004162) / increased viability upon glucose starvation (FYPO:0004163)</t>
   </si>
   <si>
-    <t>decreased cell population growth during glucose starvation (FYPO:0003743) / NTR: increased cell population growth during glucose starvation</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONTROL decreased vegetative cell population viability (FYPO:0009007) / increased vegetative cell population viability (FYPO:0009008) </t>
+  </si>
+  <si>
+    <t>decreased viability on xylose carbon source (FYPO:0009014)</t>
+  </si>
+  <si>
+    <t>decreased viability on galactose carbon source (FYPO:0009012)</t>
+  </si>
+  <si>
+    <t>decreased viability on glycerol carbon source (FYPO:0009013)</t>
+  </si>
+  <si>
+    <t>reduced viability in stationary phase upon glucose starvation in the presence of cadmium (FYPO:0009017) /increased viability in stationary phase upon glucose starvation (FYPO:0009018)</t>
+  </si>
+  <si>
+    <t>loss of viability in stationary phase (FYPO:0000245) / increased viability in stationary phase (FYPO:0001309)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decreased vegetative cell population viability (FYPO:0009007) / increased vegetative cell population viability (FYPO:0009008) </t>
+  </si>
+  <si>
+    <t>FYPO:0007726 / FYPO:0009027</t>
+  </si>
+  <si>
+    <t>FYPO:0000250 / FYPO:0009028</t>
+  </si>
+  <si>
+    <t>sensitive to UV (FYPO:0000268)</t>
+  </si>
+  <si>
+    <t>sensitive to vanadate (FYPO:0003656) / FYPO:0000830</t>
+  </si>
+  <si>
+    <t>sensitive to sodium dodecyl sulfate (FYPO:0000841) / FYPO:0005266</t>
+  </si>
+  <si>
+    <t>sensitive to diamide (FYPO:0000799) / FYPO:0002693</t>
+  </si>
+  <si>
+    <t>sensitive to dimethyl sulfoxide (FYPO:0004674)</t>
+  </si>
+  <si>
+    <t>decreased cell population growth on proline nitrogen source (FYPO:0000250) / increased cell population growth on proline nitrogen source (FYPO:0009028)</t>
+  </si>
+  <si>
+    <t>FYPO:0009009 / FYPO:0009029</t>
+  </si>
+  <si>
+    <t>decreased cell population growth on arginine nitrogen source (FYPO:0009009) / increased cell population growth on arginine nitrogen source (FYPO:0009029)</t>
+  </si>
+  <si>
+    <t>decreased cell population growth on cysteine nitrogen source (FYPO:0009021) / increased cell population growth on cysteine nitrogen source (FYPO:0009024)</t>
+  </si>
+  <si>
+    <t>decreased cell population growth on isoleucine nitrogen source (FYPO:0009022) / increased cell population growth on isoleucine nitrogen source (FYPO:0009025)</t>
+  </si>
+  <si>
+    <t>decreased cell population growth on methionine nitrogen source (FYPO:0009023) / increased cell population growth on methionine nitrogen source (FYPO:0009026)</t>
+  </si>
+  <si>
+    <t>FYPO:0001097 / FYPO:9030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2214,8 +2208,15 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2252,6 +2253,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2262,10 +2268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2333,8 +2340,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3739,13 +3750,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="102" workbookViewId="0">
-      <selection activeCell="A68" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A61" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="106.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="160" style="5" customWidth="1"/>
     <col min="2" max="2" width="65.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="40" style="5" customWidth="1"/>
@@ -3789,7 +3800,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B2" s="21"/>
       <c r="D2" s="4" t="s">
@@ -3804,7 +3815,7 @@
         <v>426</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>427</v>
@@ -3830,7 +3841,7 @@
         <v>426</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -3853,7 +3864,7 @@
         <v>429</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3873,10 +3884,10 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
@@ -3899,10 +3910,10 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
@@ -3928,7 +3939,7 @@
         <v>430</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>427</v>
@@ -3951,7 +3962,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="4" t="s">
@@ -3966,7 +3977,7 @@
         <v>429</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
@@ -3986,7 +3997,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B11" s="21"/>
       <c r="D11" s="4" t="s">
@@ -3998,10 +4009,10 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -4015,10 +4026,10 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>42</v>
@@ -4038,10 +4049,10 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>45</v>
@@ -4055,10 +4066,10 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
@@ -4075,7 +4086,7 @@
         <v>431</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>51</v>
@@ -4098,7 +4109,7 @@
         <v>431</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>53</v>
@@ -4121,7 +4132,7 @@
         <v>431</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>55</v>
@@ -4144,7 +4155,7 @@
         <v>432</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>427</v>
@@ -4170,7 +4181,7 @@
         <v>432</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>61</v>
@@ -4193,7 +4204,7 @@
         <v>433</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>63</v>
@@ -4213,10 +4224,10 @@
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
@@ -4233,7 +4244,7 @@
         <v>429</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>69</v>
@@ -4256,7 +4267,7 @@
         <v>429</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>72</v>
@@ -4279,7 +4290,7 @@
         <v>434</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>74</v>
@@ -4302,7 +4313,7 @@
         <v>434</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>77</v>
@@ -4328,7 +4339,7 @@
         <v>435</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>81</v>
@@ -4351,7 +4362,7 @@
         <v>435</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>85</v>
@@ -4374,7 +4385,7 @@
         <v>435</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>87</v>
@@ -4397,7 +4408,7 @@
         <v>435</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>89</v>
@@ -4417,10 +4428,10 @@
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>91</v>
@@ -4443,10 +4454,10 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>95</v>
@@ -4466,10 +4477,10 @@
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>97</v>
@@ -4489,10 +4500,10 @@
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>99</v>
@@ -4512,10 +4523,10 @@
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>103</v>
@@ -4535,10 +4546,10 @@
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>105</v>
@@ -4561,7 +4572,7 @@
         <v>436</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>107</v>
@@ -4581,10 +4592,10 @@
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>427</v>
@@ -4607,10 +4618,10 @@
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>114</v>
@@ -4630,10 +4641,10 @@
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>117</v>
@@ -4653,10 +4664,10 @@
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>485</v>
+        <v>668</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>119</v>
@@ -4676,10 +4687,10 @@
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>485</v>
+        <v>668</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>122</v>
@@ -4699,10 +4710,10 @@
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>440</v>
+        <v>669</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>427</v>
@@ -4728,10 +4739,10 @@
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>440</v>
+        <v>669</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>129</v>
@@ -4751,10 +4762,10 @@
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>131</v>
@@ -4774,10 +4785,10 @@
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>134</v>
@@ -4797,10 +4808,10 @@
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>427</v>
@@ -4823,10 +4834,10 @@
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>140</v>
@@ -4849,10 +4860,10 @@
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>145</v>
@@ -4872,10 +4883,10 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>147</v>
@@ -4895,10 +4906,10 @@
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>149</v>
@@ -4918,10 +4929,10 @@
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>151</v>
@@ -4941,10 +4952,10 @@
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>153</v>
@@ -4964,10 +4975,10 @@
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>155</v>
@@ -4987,10 +4998,10 @@
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>437</v>
+        <v>667</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>157</v>
@@ -5010,10 +5021,10 @@
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>159</v>
@@ -5033,10 +5044,10 @@
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>162</v>
@@ -5050,10 +5061,10 @@
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>165</v>
@@ -5076,10 +5087,10 @@
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>169</v>
@@ -5099,7 +5110,7 @@
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="B60" s="9"/>
       <c r="D60" s="4" t="s">
@@ -5111,10 +5122,10 @@
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>173</v>
@@ -5134,10 +5145,10 @@
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>175</v>
@@ -5160,10 +5171,10 @@
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>179</v>
@@ -5183,10 +5194,10 @@
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>183</v>
@@ -5206,10 +5217,10 @@
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>185</v>
@@ -5229,10 +5240,10 @@
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>193</v>
@@ -5255,10 +5266,10 @@
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>198</v>
@@ -5272,10 +5283,10 @@
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>201</v>
@@ -5289,10 +5300,10 @@
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>442</v>
+        <v>670</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>427</v>
@@ -5315,10 +5326,10 @@
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>207</v>
@@ -5338,10 +5349,10 @@
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>442</v>
+        <v>670</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>209</v>
@@ -5361,10 +5372,10 @@
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>442</v>
+        <v>670</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>211</v>
@@ -5384,10 +5395,10 @@
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>213</v>
@@ -5407,10 +5418,10 @@
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>215</v>
@@ -5430,10 +5441,10 @@
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>217</v>
@@ -5453,10 +5464,10 @@
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>219</v>
@@ -5476,10 +5487,10 @@
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>221</v>
@@ -5502,7 +5513,7 @@
         <v>432</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>223</v>
@@ -5522,10 +5533,10 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>225</v>
@@ -5545,10 +5556,10 @@
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>228</v>
@@ -5568,10 +5579,10 @@
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>230</v>
@@ -5591,10 +5602,10 @@
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>233</v>
@@ -5614,10 +5625,10 @@
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>235</v>
@@ -5637,10 +5648,10 @@
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -5663,7 +5674,7 @@
         <v>436</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>239</v>
@@ -5682,11 +5693,11 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
-        <v>504</v>
+      <c r="A86" s="33" t="s">
+        <v>661</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>241</v>
@@ -5708,11 +5719,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="29" t="s">
-        <v>505</v>
+      <c r="A87" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>245</v>
@@ -5725,11 +5736,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
-        <v>504</v>
+      <c r="A88" s="33" t="s">
+        <v>661</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>248</v>
@@ -5748,11 +5759,11 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
-        <v>505</v>
+      <c r="A89" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>250</v>
@@ -5766,10 +5777,10 @@
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>253</v>
@@ -5789,10 +5800,10 @@
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>255</v>
@@ -5809,10 +5820,10 @@
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>259</v>
@@ -5832,10 +5843,10 @@
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>263</v>
@@ -5849,10 +5860,10 @@
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>266</v>
@@ -5872,10 +5883,10 @@
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>268</v>
@@ -5895,10 +5906,10 @@
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>271</v>
@@ -5918,10 +5929,10 @@
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>273</v>
@@ -5941,10 +5952,10 @@
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>276</v>
@@ -5967,10 +5978,10 @@
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>278</v>
@@ -5990,10 +6001,10 @@
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>280</v>
@@ -6013,10 +6024,10 @@
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>282</v>
@@ -6036,10 +6047,10 @@
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>440</v>
+        <v>669</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>284</v>
@@ -6059,10 +6070,10 @@
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>287</v>
@@ -6082,10 +6093,10 @@
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>290</v>
@@ -6105,10 +6116,10 @@
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>292</v>
@@ -6128,10 +6139,10 @@
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>296</v>
@@ -6151,10 +6162,10 @@
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>298</v>
@@ -6174,10 +6185,10 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>300</v>
@@ -6197,10 +6208,10 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>302</v>
@@ -6220,10 +6231,10 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>304</v>
@@ -6243,10 +6254,10 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>427</v>
@@ -6269,10 +6280,10 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="29" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>308</v>
@@ -6285,11 +6296,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
-        <v>503</v>
+      <c r="A113" s="33" t="s">
+        <v>659</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>311</v>
@@ -6309,10 +6320,10 @@
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="B114" s="19" t="s">
         <v>469</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>475</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>314</v>
@@ -6326,10 +6337,10 @@
     </row>
     <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="29" t="s">
+        <v>663</v>
+      </c>
+      <c r="B115" s="19" t="s">
         <v>469</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>475</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>317</v>
@@ -6343,10 +6354,10 @@
     </row>
     <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>320</v>
@@ -6360,10 +6371,10 @@
     </row>
     <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>323</v>
@@ -6383,10 +6394,10 @@
     </row>
     <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>327</v>
@@ -6406,10 +6417,10 @@
     </row>
     <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>329</v>
@@ -6428,11 +6439,11 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="9" t="s">
-        <v>502</v>
+      <c r="A120" s="33" t="s">
+        <v>672</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>331</v>
@@ -6452,10 +6463,10 @@
     </row>
     <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>334</v>
@@ -6475,10 +6486,10 @@
     </row>
     <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>440</v>
+        <v>669</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>336</v>
@@ -6498,10 +6509,10 @@
     </row>
     <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>338</v>
@@ -6521,10 +6532,10 @@
     </row>
     <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>440</v>
+        <v>669</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>341</v>
@@ -6544,10 +6555,10 @@
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>343</v>
@@ -6561,10 +6572,10 @@
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>346</v>
@@ -6584,10 +6595,10 @@
     </row>
     <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>427</v>
@@ -6609,11 +6620,11 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
-        <v>500</v>
+      <c r="A128" s="33" t="s">
+        <v>633</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>351</v>
@@ -6632,11 +6643,11 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
-        <v>501</v>
+      <c r="A129" s="33" t="s">
+        <v>673</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>354</v>
@@ -6659,7 +6670,7 @@
         <v>436</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>357</v>
@@ -6679,10 +6690,10 @@
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>359</v>
@@ -6705,10 +6716,10 @@
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>363</v>
@@ -6731,10 +6742,10 @@
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>365</v>
@@ -6760,7 +6771,7 @@
         <v>436</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>367</v>
@@ -6782,11 +6793,11 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="12" t="s">
-        <v>445</v>
+      <c r="A135" t="s">
+        <v>442</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>371</v>
@@ -6809,10 +6820,10 @@
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>373</v>
@@ -6835,10 +6846,10 @@
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>375</v>
@@ -6864,7 +6875,7 @@
         <v>436</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>377</v>
@@ -6887,10 +6898,10 @@
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>379</v>
@@ -6913,10 +6924,10 @@
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>384</v>
@@ -6936,10 +6947,10 @@
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>455</v>
+        <v>671</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>386</v>
@@ -6962,10 +6973,10 @@
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>390</v>
@@ -6985,10 +6996,10 @@
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>392</v>
@@ -7010,11 +7021,11 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
-        <v>499</v>
+      <c r="A144" s="33" t="s">
+        <v>660</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>397</v>
@@ -7034,10 +7045,10 @@
     </row>
     <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="4" t="s">
@@ -7058,10 +7069,10 @@
     </row>
     <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="29" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>187</v>
@@ -7075,10 +7086,10 @@
     </row>
     <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="29" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>189</v>
@@ -7092,10 +7103,10 @@
     </row>
     <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="29" t="s">
-        <v>462</v>
+        <v>664</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>191</v>
@@ -7109,10 +7120,10 @@
     </row>
     <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>406</v>
@@ -7125,11 +7136,11 @@
       </c>
     </row>
     <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="9" t="s">
-        <v>503</v>
+      <c r="A150" s="33" t="s">
+        <v>659</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>409</v>
@@ -8030,8 +8041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B6C71-3AEE-9A49-8E5D-6D27BF992EF7}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8050,160 +8061,160 @@
         <v>424</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>412</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E3" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F3" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G3" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="E4" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="F4" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G4" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="E5" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F5" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="E6" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F6" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G6" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -8212,1082 +8223,1082 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="E7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="D8" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E8" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="F8" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="D9" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F9" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G9" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>679</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="D10" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E10" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="F10" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G10" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D11" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F11" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G11" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D12" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E12" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F12" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G12" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D13" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="E13" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F13" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G13" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="D14" t="s">
         <v>398</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F14" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="G14" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D15" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E15" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="F15" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="G15" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D16" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E16" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="G16" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E17" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="F17" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="G17" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D18" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E18" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="F18" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G18" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="D19" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E19" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F19" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G19" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D20" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E20" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F20" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G20" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="D21" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E21" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="F21" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G21" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="D22" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E22" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="F22" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G22" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="D23" t="s">
         <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="F23" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G23" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F24" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="G24" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D25" t="s">
         <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F25" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G25" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F26" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G26" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="D27" t="s">
         <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F27" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G27" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E28" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="F28" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G28" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="E29" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="F29" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="G29" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D30" t="s">
         <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="F30" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="G30" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="D31" t="s">
         <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F31" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="G31" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="D32" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E32" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="F32" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G32" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D33" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F33" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G33" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D34" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="F34" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="G34" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="D35" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E35" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F35" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="F36" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G36" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="D37" t="s">
         <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="F37" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G37" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="D38" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E38" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="F38" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="G38" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D39" t="s">
         <v>288</v>
       </c>
       <c r="E39" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="F39" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="G39" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D40" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E40" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F40" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G40" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D41" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E41" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="F41" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="G41" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F42" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G42" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F43" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G43" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="D44" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="E44" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="F44" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="G44" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="D45" t="s">
         <v>347</v>
       </c>
       <c r="E45" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="F45" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G45" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D46" t="s">
         <v>380</v>
       </c>
       <c r="E46" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="F46" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G46" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D47" t="s">
         <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="F47" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G47" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D48" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="E48" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F48" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G48" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/data/vals_spreadsheet.xlsx
+++ b/data/vals_spreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manu/Documents/Projects/phenomics_paper_HTP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A52880-27D1-EA42-8932-51AEC0F2AA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323ECA3-BDD2-3F46-A8A1-80D2D9DE1AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="560" windowWidth="41540" windowHeight="26740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28220" yWindow="5960" windowWidth="28220" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'knock-out_condition_metadata'!$A$1:$I$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'knock-out_condition_metadata'!$A$1:$A$993</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OE_condition_metadata!$A$1:$A$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="678">
   <si>
     <t>Sheets included in this dataset</t>
   </si>
@@ -1311,9 +1312,6 @@
     <t xml:space="preserve">Condition </t>
   </si>
   <si>
-    <t>sensitive to amitrole (FYPO:0001097) </t>
-  </si>
-  <si>
     <t>let me know if you need equivalent resistance phenotype</t>
   </si>
   <si>
@@ -1323,15 +1321,6 @@
     <t xml:space="preserve">sensitive to canavanine (FYPO:0000099) /resistance to canavanine (FYPO:0001029) </t>
   </si>
   <si>
-    <t>sensitive to bleomycin (FYPO:0000095)</t>
-  </si>
-  <si>
-    <t>sensitive to bleomycin (FYPO:0000095)/</t>
-  </si>
-  <si>
-    <t>sensitive to bortezomib (FYPO:0001701)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sensitive to brefeldin A (FYPO:0001501) /resistance to brefeldin A (FYPO:0000067) </t>
   </si>
   <si>
@@ -1342,9 +1331,6 @@
   </si>
   <si>
     <t>sensitive to ethanol during vegetative growth (FYPO:0000842)/resistance to ethanol (FYPO:0001453)</t>
-  </si>
-  <si>
-    <t>sensitive to formamide (FYPO:0000785)</t>
   </si>
   <si>
     <t>sensitive to hydroxyurea (FYPO:0000088)/resistance to hydroxyurea (FYPO:0002578)</t>
@@ -1386,9 +1372,6 @@
     <t>sensitive to rapamycin (FYPO:0000111)/resistance to rapamycin (FYPO:0000077)</t>
   </si>
   <si>
-    <t>sensitive to formamide (FYPO:0000785) </t>
-  </si>
-  <si>
     <t>sensitive to valproic acid (FYPO:0000115) /resistance to valproic acid (FYPO:0007808)</t>
   </si>
   <si>
@@ -1422,9 +1405,6 @@
     <t>FYECO:0000331 (glucose MM, arginine nitrogen source)</t>
   </si>
   <si>
-    <t>sensitive to potassium chloride (FYPO:0001214)/</t>
-  </si>
-  <si>
     <t>sensitive to methyl methanesulfonate (FYPO:0000089)/resistance to methyl methanesulfonate (FYPO:0000725)</t>
   </si>
   <si>
@@ -1449,9 +1429,6 @@
     <t>FYECO:0000072 (glycerol MM with trace glucose), FYECO:0000211 (+MMS)</t>
   </si>
   <si>
-    <t>sensitive to potassium chloride (FYPO:0001214)</t>
-  </si>
-  <si>
     <t>FYECO:0000012 (YES) FYECO:0000025 (+ sorbitol)</t>
   </si>
   <si>
@@ -1467,51 +1444,6 @@
     <t xml:space="preserve">FYECO:0000012 (YES) FYECO:0000207 (+ K Cl) </t>
   </si>
   <si>
-    <t>sensitive to cysteine (FYPO:0007922)</t>
-  </si>
-  <si>
-    <t>sensitive to methionine (FYPO:0002705)</t>
-  </si>
-  <si>
-    <t>sensitive to potassium chloride and sodium dodecyl sulfate (FYPO:0007924)</t>
-  </si>
-  <si>
-    <t>sensitive to sodium chloride and methyl methanesulfonate (FYPO:0007925)</t>
-  </si>
-  <si>
-    <t>sensitive to calcofluor and potassium chloride (FYPO:0007926)</t>
-  </si>
-  <si>
-    <t>sensitive to dihydrocoumarin (FYPO:0007927)</t>
-  </si>
-  <si>
-    <t>sensitive to ethylenediaminetetraacetic acid (FYPO:0007928)</t>
-  </si>
-  <si>
-    <t>sensitive to vanadate (FYPO:0003656)</t>
-  </si>
-  <si>
-    <t>sensitive to benzamidine (FYPO:0007921)</t>
-  </si>
-  <si>
-    <t>sensitive to phloxine B and hydrogen peroxide (FYPO:0007930)</t>
-  </si>
-  <si>
-    <t>sensitive to phloxine B (FYPO:0007929)</t>
-  </si>
-  <si>
-    <t>sensitive to egtazic acid (FYPO:0007931)</t>
-  </si>
-  <si>
-    <t>sensitive to hydroxyurea and methyl methanesulfonate (FYPO:0007932)</t>
-  </si>
-  <si>
-    <t>sensitive to tea tree oil (FYPO:0007938)</t>
-  </si>
-  <si>
-    <t>sensitive to potassium chloride (FYPO:0001214) </t>
-  </si>
-  <si>
     <t>FYECO:0000012 (YES), FYECO:0000402 (+ xylose)</t>
   </si>
   <si>
@@ -1522,12 +1454,6 @@
   </si>
   <si>
     <t>FYECO:0000403 (gglucose MM, glutamine nitrogen source)</t>
-  </si>
-  <si>
-    <t>sensitive to 2,2′-dipyridyl (FYPO:0007933)</t>
-  </si>
-  <si>
-    <t>FYPO:0000112</t>
   </si>
   <si>
     <t>decreased vegetative cell population growth (FYPO:0001355) / increased vegetative cell population growth (FYPO:0004557)</t>
@@ -1982,27 +1908,18 @@
     <t>FYPO:0000799 / FYPO:0002693</t>
   </si>
   <si>
-    <t>FYPO:0000095</t>
-  </si>
-  <si>
     <t>FYPO:0000088 / FYPO:0002578</t>
   </si>
   <si>
     <t>FYPO:0000089 / FYPO:0000725</t>
   </si>
   <si>
-    <t>FYPO:0001214</t>
-  </si>
-  <si>
     <t>FYPO:0000440 / FYPO:0000441</t>
   </si>
   <si>
     <t>FYPO:0001245 / FYPO:0002634</t>
   </si>
   <si>
-    <t>FYPO:0007931</t>
-  </si>
-  <si>
     <t>FYPO:0000841 / FYPO:0005266</t>
   </si>
   <si>
@@ -2025,9 +1942,6 @@
   </si>
   <si>
     <t>FYPO:0002701 / FYPO:0005193</t>
-  </si>
-  <si>
-    <t>sensitive to sorbitol (FYPO:0000112)</t>
   </si>
   <si>
     <r>
@@ -2050,15 +1964,6 @@
     <t xml:space="preserve">CONTROL decreased vegetative cell population viability (FYPO:0009007) / increased vegetative cell population viability (FYPO:0009008) </t>
   </si>
   <si>
-    <t>decreased viability on xylose carbon source (FYPO:0009014)</t>
-  </si>
-  <si>
-    <t>decreased viability on galactose carbon source (FYPO:0009012)</t>
-  </si>
-  <si>
-    <t>decreased viability on glycerol carbon source (FYPO:0009013)</t>
-  </si>
-  <si>
     <t>reduced viability in stationary phase upon glucose starvation in the presence of cadmium (FYPO:0009017) /increased viability in stationary phase upon glucose starvation (FYPO:0009018)</t>
   </si>
   <si>
@@ -2074,9 +1979,6 @@
     <t>FYPO:0000250 / FYPO:0009028</t>
   </si>
   <si>
-    <t>sensitive to UV (FYPO:0000268)</t>
-  </si>
-  <si>
     <t>sensitive to vanadate (FYPO:0003656) / FYPO:0000830</t>
   </si>
   <si>
@@ -2086,9 +1988,6 @@
     <t>sensitive to diamide (FYPO:0000799) / FYPO:0002693</t>
   </si>
   <si>
-    <t>sensitive to dimethyl sulfoxide (FYPO:0004674)</t>
-  </si>
-  <si>
     <t>decreased cell population growth on proline nitrogen source (FYPO:0000250) / increased cell population growth on proline nitrogen source (FYPO:0009028)</t>
   </si>
   <si>
@@ -2107,7 +2006,106 @@
     <t>decreased cell population growth on methionine nitrogen source (FYPO:0009023) / increased cell population growth on methionine nitrogen source (FYPO:0009026)</t>
   </si>
   <si>
-    <t>FYPO:0001097 / FYPO:9030</t>
+    <t>FYPO:0000112 / FYPO:0009042</t>
+  </si>
+  <si>
+    <t>sensitive to dimethyl sulfoxide (FYPO:0004674) / FYPO:0009047</t>
+  </si>
+  <si>
+    <t>sensitive to tea tree oil (FYPO:0007938) / FYPO:0009040</t>
+  </si>
+  <si>
+    <t>sensitive to potassium chloride (FYPO:0001214) / FYPO:0009039</t>
+  </si>
+  <si>
+    <t>sensitive to 2,2′-dipyridyl (FYPO:0007933) / FYPO:0009041</t>
+  </si>
+  <si>
+    <t>sensitive to amitrole (FYPO:0001097) / FYPO:0009030</t>
+  </si>
+  <si>
+    <t>sensitive to UV (FYPO:0000268) / FYPO:0009010</t>
+  </si>
+  <si>
+    <t>sensitive to dihydrocoumarin (FYPO:0007927) / FYPO:0009033</t>
+  </si>
+  <si>
+    <t>sensitive to bortezomib (FYPO:0001701) / FYPO:0009032</t>
+  </si>
+  <si>
+    <t>sensitive to cysteine (FYPO:0007922) / FYPO:0009048</t>
+  </si>
+  <si>
+    <t>sensitive to methionine (FYPO:0002705) / FYPO:0009049</t>
+  </si>
+  <si>
+    <t>sensitive to potassium chloride and sodium dodecyl sulfate (FYPO:0007924) / FYPO:0009043</t>
+  </si>
+  <si>
+    <t>sensitive to sodium chloride and methyl methanesulfonate (FYPO:0007925) / FYPO:0009044</t>
+  </si>
+  <si>
+    <t>sensitive to calcofluor and potassium chloride (FYPO:0007926) / FYPO:0009045</t>
+  </si>
+  <si>
+    <t>sensitive to ethylenediaminetetraacetic acid (FYPO:0007928) / FYPO:0009034</t>
+  </si>
+  <si>
+    <t>sensitive to formamide (FYPO:0000785) / FYPO:0009035</t>
+  </si>
+  <si>
+    <t>sensitive to benzamidine (FYPO:0007921) / FYPO:0009036</t>
+  </si>
+  <si>
+    <t>sensitive to phloxine B (FYPO:0007929) / FYPO:0009037</t>
+  </si>
+  <si>
+    <t>sensitive to phloxine B and hydrogen peroxide (FYPO:0007930) / FYPO:0009046</t>
+  </si>
+  <si>
+    <t>sensitive to egtazic acid (FYPO:0007931) / FYPO:0009038</t>
+  </si>
+  <si>
+    <t>decreased viability on glycerol carbon source (FYPO:0009013) / FYPO:0009015</t>
+  </si>
+  <si>
+    <t>sensitive to potassium chloride (FYPO:0001214) / FYPO:0009039</t>
+  </si>
+  <si>
+    <t>sensitive to hydroxyurea and methyl methanesulfonate (FYPO:0007932) / FYPO:0009050</t>
+  </si>
+  <si>
+    <t>decreased viability on xylose carbon source (FYPO:0009014) / FYPO:0009016</t>
+  </si>
+  <si>
+    <t>decreased viability on galactose carbon source (FYPO:0009012) / FYPO:0009011</t>
+  </si>
+  <si>
+    <t>FYPO:0000095 / FYPO:0009031</t>
+  </si>
+  <si>
+    <t>FYPO:0007931 / FYPO:0009038</t>
+  </si>
+  <si>
+    <t>sensitive to bleomycin (FYPO:0000095)/ FYPO:0009031</t>
+  </si>
+  <si>
+    <t>sensitive to potassium chloride (FYPO:0001214)/ FYPO:0009039</t>
+  </si>
+  <si>
+    <t>sensitive to bleomycin (FYPO:0000095) / FYPO:0009031</t>
+  </si>
+  <si>
+    <t>FYPO:0001097 / FYPO:0009030</t>
+  </si>
+  <si>
+    <t>FYPO:0001214 / FYPO:0009039</t>
+  </si>
+  <si>
+    <t>FYPO:0000249 / FYPO:0009051</t>
+  </si>
+  <si>
+    <t>FYPO:0009052 /  FYPO:0009053</t>
   </si>
 </sst>
 </file>
@@ -3750,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I993"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3777,7 +3775,7 @@
         <v>425</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>416</v>
@@ -3800,7 +3798,7 @@
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="B2" s="21"/>
       <c r="D2" s="4" t="s">
@@ -3812,13 +3810,13 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>426</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>427</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -3838,10 +3836,10 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>649</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -3861,10 +3859,10 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3884,10 +3882,10 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>472</v>
+        <v>653</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
@@ -3910,10 +3908,10 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>473</v>
+        <v>654</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
@@ -3936,13 +3934,13 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>673</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
@@ -3962,7 +3960,7 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="4" t="s">
@@ -3974,10 +3972,10 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
@@ -3997,7 +3995,7 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="B11" s="21"/>
       <c r="D11" s="4" t="s">
@@ -4009,10 +4007,10 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>474</v>
+        <v>655</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
@@ -4026,10 +4024,10 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>42</v>
@@ -4049,10 +4047,10 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>475</v>
+        <v>656</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>45</v>
@@ -4066,10 +4064,10 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>474</v>
+        <v>655</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
@@ -4083,10 +4081,10 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>431</v>
+        <v>671</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>51</v>
@@ -4106,10 +4104,10 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>431</v>
+        <v>671</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>53</v>
@@ -4129,10 +4127,10 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>431</v>
+        <v>671</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>55</v>
@@ -4152,13 +4150,13 @@
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>432</v>
+        <v>652</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
@@ -4178,10 +4176,10 @@
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>432</v>
+        <v>652</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>61</v>
@@ -4201,10 +4199,10 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>63</v>
@@ -4224,10 +4222,10 @@
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>476</v>
+        <v>657</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
@@ -4241,10 +4239,10 @@
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>69</v>
@@ -4264,10 +4262,10 @@
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>72</v>
@@ -4287,10 +4285,10 @@
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>74</v>
@@ -4310,10 +4308,10 @@
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>77</v>
@@ -4336,10 +4334,10 @@
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>81</v>
@@ -4359,10 +4357,10 @@
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>85</v>
@@ -4382,10 +4380,10 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>87</v>
@@ -4405,10 +4403,10 @@
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>89</v>
@@ -4428,10 +4426,10 @@
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>477</v>
+        <v>651</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>91</v>
@@ -4454,10 +4452,10 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>477</v>
+        <v>651</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>95</v>
@@ -4477,10 +4475,10 @@
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>477</v>
+        <v>651</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>97</v>
@@ -4500,10 +4498,10 @@
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>478</v>
+        <v>658</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>99</v>
@@ -4523,10 +4521,10 @@
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>478</v>
+        <v>658</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>103</v>
@@ -4546,10 +4544,10 @@
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>478</v>
+        <v>658</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>105</v>
@@ -4569,10 +4567,10 @@
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>107</v>
@@ -4592,13 +4590,13 @@
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>437</v>
+        <v>659</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>111</v>
@@ -4618,10 +4616,10 @@
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>114</v>
@@ -4641,10 +4639,10 @@
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>117</v>
@@ -4664,10 +4662,10 @@
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>119</v>
@@ -4687,10 +4685,10 @@
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>122</v>
@@ -4710,13 +4708,13 @@
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>124</v>
@@ -4739,10 +4737,10 @@
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>129</v>
@@ -4762,10 +4760,10 @@
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>131</v>
@@ -4785,10 +4783,10 @@
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>134</v>
@@ -4808,13 +4806,13 @@
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>136</v>
@@ -4834,10 +4832,10 @@
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>140</v>
@@ -4860,10 +4858,10 @@
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>145</v>
@@ -4883,10 +4881,10 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>147</v>
@@ -4906,10 +4904,10 @@
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>149</v>
@@ -4929,10 +4927,10 @@
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>151</v>
@@ -4952,10 +4950,10 @@
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>153</v>
@@ -4975,10 +4973,10 @@
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>155</v>
@@ -4998,10 +4996,10 @@
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>157</v>
@@ -5021,10 +5019,10 @@
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>159</v>
@@ -5044,10 +5042,10 @@
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>476</v>
+        <v>657</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>162</v>
@@ -5061,10 +5059,10 @@
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>165</v>
@@ -5087,10 +5085,10 @@
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>437</v>
+        <v>659</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>169</v>
@@ -5110,7 +5108,7 @@
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="B60" s="9"/>
       <c r="D60" s="4" t="s">
@@ -5122,10 +5120,10 @@
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>173</v>
@@ -5145,10 +5143,10 @@
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>175</v>
@@ -5171,10 +5169,10 @@
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>179</v>
@@ -5194,10 +5192,10 @@
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>183</v>
@@ -5217,10 +5215,10 @@
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>185</v>
@@ -5240,10 +5238,10 @@
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>482</v>
+        <v>661</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>193</v>
@@ -5266,10 +5264,10 @@
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>481</v>
+        <v>662</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>198</v>
@@ -5283,10 +5281,10 @@
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
-        <v>481</v>
+        <v>662</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>201</v>
@@ -5300,13 +5298,13 @@
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>204</v>
@@ -5326,10 +5324,10 @@
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>207</v>
@@ -5349,10 +5347,10 @@
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>209</v>
@@ -5372,10 +5370,10 @@
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>211</v>
@@ -5395,10 +5393,10 @@
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>213</v>
@@ -5418,10 +5416,10 @@
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>215</v>
@@ -5441,10 +5439,10 @@
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>217</v>
@@ -5464,10 +5462,10 @@
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>219</v>
@@ -5487,10 +5485,10 @@
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>221</v>
@@ -5510,10 +5508,10 @@
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>432</v>
+        <v>652</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>223</v>
@@ -5533,10 +5531,10 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>225</v>
@@ -5556,10 +5554,10 @@
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>478</v>
+        <v>658</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>228</v>
@@ -5579,10 +5577,10 @@
     </row>
     <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>483</v>
+        <v>663</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>230</v>
@@ -5602,10 +5600,10 @@
     </row>
     <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>483</v>
+        <v>663</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>233</v>
@@ -5625,10 +5623,10 @@
     </row>
     <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>483</v>
+        <v>663</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>235</v>
@@ -5648,10 +5646,10 @@
     </row>
     <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
-        <v>483</v>
+        <v>663</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>237</v>
@@ -5671,10 +5669,10 @@
     </row>
     <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>239</v>
@@ -5694,10 +5692,10 @@
     </row>
     <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="33" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>241</v>
@@ -5720,10 +5718,10 @@
     </row>
     <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>245</v>
@@ -5737,10 +5735,10 @@
     </row>
     <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>248</v>
@@ -5760,10 +5758,10 @@
     </row>
     <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>458</v>
-      </c>
-      <c r="B89" s="19" t="s">
-        <v>465</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>250</v>
@@ -5777,10 +5775,10 @@
     </row>
     <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="18" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>253</v>
@@ -5800,10 +5798,10 @@
     </row>
     <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>484</v>
+        <v>666</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>255</v>
@@ -5820,10 +5818,10 @@
     </row>
     <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>466</v>
+        <v>665</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>259</v>
@@ -5843,10 +5841,10 @@
     </row>
     <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
-        <v>474</v>
+        <v>655</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>263</v>
@@ -5860,10 +5858,10 @@
     </row>
     <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>466</v>
+        <v>665</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>266</v>
@@ -5883,10 +5881,10 @@
     </row>
     <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>268</v>
@@ -5906,10 +5904,10 @@
     </row>
     <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>271</v>
@@ -5929,10 +5927,10 @@
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>273</v>
@@ -5952,10 +5950,10 @@
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>276</v>
@@ -5978,10 +5976,10 @@
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
-        <v>479</v>
+        <v>635</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>278</v>
@@ -6001,10 +5999,10 @@
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
-        <v>479</v>
+        <v>635</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>280</v>
@@ -6024,10 +6022,10 @@
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
-        <v>479</v>
+        <v>635</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>282</v>
@@ -6047,10 +6045,10 @@
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>284</v>
@@ -6070,10 +6068,10 @@
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>287</v>
@@ -6093,10 +6091,10 @@
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>290</v>
@@ -6116,10 +6114,10 @@
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>292</v>
@@ -6139,10 +6137,10 @@
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>296</v>
@@ -6162,10 +6160,10 @@
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>298</v>
@@ -6185,10 +6183,10 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>300</v>
@@ -6208,10 +6206,10 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>302</v>
@@ -6231,10 +6229,10 @@
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>304</v>
@@ -6254,13 +6252,13 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>445</v>
+        <v>659</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>306</v>
@@ -6280,10 +6278,10 @@
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="29" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>308</v>
@@ -6297,10 +6295,10 @@
     </row>
     <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="33" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>311</v>
@@ -6320,10 +6318,10 @@
     </row>
     <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="29" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>314</v>
@@ -6337,10 +6335,10 @@
     </row>
     <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="29" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>317</v>
@@ -6354,10 +6352,10 @@
     </row>
     <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>320</v>
@@ -6371,10 +6369,10 @@
     </row>
     <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>485</v>
+        <v>646</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>323</v>
@@ -6394,10 +6392,10 @@
     </row>
     <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>485</v>
+        <v>646</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>327</v>
@@ -6417,10 +6415,10 @@
     </row>
     <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>485</v>
+        <v>646</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>329</v>
@@ -6440,10 +6438,10 @@
     </row>
     <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="33" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>331</v>
@@ -6463,10 +6461,10 @@
     </row>
     <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="25" t="s">
-        <v>486</v>
+        <v>647</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>334</v>
@@ -6486,10 +6484,10 @@
     </row>
     <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>336</v>
@@ -6509,10 +6507,10 @@
     </row>
     <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="24" t="s">
-        <v>491</v>
+        <v>648</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>338</v>
@@ -6532,10 +6530,10 @@
     </row>
     <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>341</v>
@@ -6554,11 +6552,11 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>493</v>
+      <c r="A125" s="9" t="s">
+        <v>611</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>343</v>
@@ -6572,10 +6570,10 @@
     </row>
     <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>346</v>
@@ -6595,13 +6593,13 @@
     </row>
     <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>457</v>
+        <v>672</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>349</v>
@@ -6621,10 +6619,10 @@
     </row>
     <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="33" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>351</v>
@@ -6644,10 +6642,10 @@
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="33" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>354</v>
@@ -6667,10 +6665,10 @@
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>357</v>
@@ -6690,10 +6688,10 @@
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>359</v>
@@ -6716,10 +6714,10 @@
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>363</v>
@@ -6742,10 +6740,10 @@
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>365</v>
@@ -6768,10 +6766,10 @@
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>367</v>
@@ -6794,10 +6792,10 @@
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>371</v>
@@ -6820,10 +6818,10 @@
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>373</v>
@@ -6846,10 +6844,10 @@
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>375</v>
@@ -6872,10 +6870,10 @@
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>377</v>
@@ -6898,10 +6896,10 @@
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>379</v>
@@ -6924,10 +6922,10 @@
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>384</v>
@@ -6947,10 +6945,10 @@
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>671</v>
+        <v>645</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>386</v>
@@ -6973,10 +6971,10 @@
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>390</v>
@@ -6996,10 +6994,10 @@
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>392</v>
@@ -7022,10 +7020,10 @@
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="33" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>397</v>
@@ -7044,11 +7042,11 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="9" t="s">
-        <v>655</v>
+      <c r="A145" t="s">
+        <v>644</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="4" t="s">
@@ -7069,10 +7067,10 @@
     </row>
     <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="29" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>187</v>
@@ -7086,10 +7084,10 @@
     </row>
     <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="29" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>189</v>
@@ -7103,10 +7101,10 @@
     </row>
     <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="29" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>191</v>
@@ -7120,10 +7118,10 @@
     </row>
     <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="28" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>406</v>
@@ -7137,10 +7135,10 @@
     </row>
     <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="33" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>409</v>
@@ -8030,7 +8028,7 @@
     <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:I150" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <autoFilter ref="A1:A993" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8041,8 +8039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B6C71-3AEE-9A49-8E5D-6D27BF992EF7}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8061,160 +8059,160 @@
         <v>424</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="E1" s="26" t="s">
         <v>412</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>494</v>
+      <c r="A2" s="9" t="s">
+        <v>676</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="F2" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G2" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="E3" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G3" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="F4" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E5" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G5" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="E6" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="F6" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -8223,1085 +8221,1086 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="F7" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G7" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="E8" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="F8" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G8" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="G9" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="F10" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="G10" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D11" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="F11" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="G11" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="E12" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="F12" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E13" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="F13" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="G13" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D14" t="s">
         <v>398</v>
       </c>
       <c r="E14" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="F14" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="G14" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="D15" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E15" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="F15" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="G15" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D16" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E16" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="F16" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="G16" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D17" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E17" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="G17" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D18" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E18" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="F18" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="G18" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="D19" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E19" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="F19" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="G19" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="D20" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E20" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="F20" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="G20" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D21" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E21" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="F21" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="G21" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E22" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="F22" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="G22" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="D23" t="s">
         <v>205</v>
       </c>
       <c r="E23" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="F23" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="G23" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="F24" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="G24" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D25" t="s">
         <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F25" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G25" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D26" t="s">
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G26" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D27" t="s">
         <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="F27" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G27" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="D28" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="E28" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="F28" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G28" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D29" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="E29" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="F29" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="G29" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D30" t="s">
         <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="F30" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="G30" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>492</v>
+        <v>644</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D31" t="s">
         <v>401</v>
       </c>
       <c r="E31" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F31" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="G31" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="D32" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="E32" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="F32" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="G32" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="D33" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="E33" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="F33" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="G33" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="D34" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="E34" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="F34" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="G34" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="D35" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E35" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F35" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="D36" t="s">
         <v>125</v>
       </c>
       <c r="E36" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F36" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="G36" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="D37" t="s">
         <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="F37" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="G37" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="D38" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="E38" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="F38" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="G38" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="D39" t="s">
         <v>288</v>
       </c>
       <c r="E39" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="F39" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="G39" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="D40" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="E40" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="F40" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="G40" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="D41" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="E41" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="F41" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="G41" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F42" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="G42" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="F43" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="G43" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D44" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="E44" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="F44" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="G44" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="D45" t="s">
         <v>347</v>
       </c>
       <c r="E45" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="F45" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="G45" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="D46" t="s">
         <v>380</v>
       </c>
       <c r="E46" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="F46" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="G46" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="D47" t="s">
         <v>380</v>
       </c>
       <c r="E47" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="F47" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="G47" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="D48" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="E48" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="F48" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="G48" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A48" xr:uid="{268B6C71-3AEE-9A49-8E5D-6D27BF992EF7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
